--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section 1.4.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -144,11 +149,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,7 +456,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,30 +500,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,6 +524,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,6 +659,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -986,119 +995,119 @@
   <dimension ref="B3:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K3" sqref="K3:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:14">
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="3:14" ht="16" thickBot="1">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="3:14" ht="16.5" thickBot="1">
       <c r="C4" s="1"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="1"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="5"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1106,79 +1115,79 @@
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="34" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="35"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="34" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1186,75 +1195,75 @@
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="3:14" ht="16" thickBot="1">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="3:14" ht="16.5" thickBot="1">
       <c r="C16" s="1"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1264,18 +1273,18 @@
       <c r="H16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="15"/>
       <c r="L16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14">
       <c r="C17" s="1"/>
